--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,10 +261,6 @@
     <t>A sample to be used for analysis.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
-  </si>
-  <si>
     <t>Role[classCode=SPEC]</t>
   </si>
   <si>
@@ -275,318 +271,322 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Specimen.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Specimen.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Specimen.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Specimen.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Specimen.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.vision-zero-oncology.de/fhir/StructureDefinition/part-of}
+</t>
+  </si>
+  <si>
+    <t>Specimen part of Tumor</t>
+  </si>
+  <si>
+    <t>Enables to reference a Tumor &lt;BodyStructure&gt; from its respective Specimen</t>
+  </si>
+  <si>
+    <t>Specimen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Identifier</t>
+  </si>
+  <si>
+    <t>Id for specimen.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>SPM-2</t>
+  </si>
+  <si>
+    <t>Specimen.accessionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
+  </si>
+  <si>
+    <t>SPM-30 (v2.7+)</t>
+  </si>
+  <si>
+    <t>Specimen.status</t>
+  </si>
+  <si>
+    <t>available | unavailable | unsatisfactory | entered-in-error</t>
+  </si>
+  <si>
+    <t>The availability of the specimen.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status/availability of a specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>SPM-20</t>
+  </si>
+  <si>
+    <t>Specimen.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of material that forms the specimen</t>
+  </si>
+  <si>
+    <t>The kind of material that forms the specimen.</t>
+  </si>
+  <si>
+    <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type of the specimen.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>SPM-4 and possibly SPM-5</t>
+  </si>
+  <si>
+    <t>Specimen.type.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Specimen.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Specimen.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Specimen.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Specimen.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Specimen.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Specimen.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.vision-zero-oncology.de/fhir/StructureDefinition/part-of}
-</t>
-  </si>
-  <si>
-    <t>Specimen part of Tumor</t>
-  </si>
-  <si>
-    <t>Enables to reference a Tumor &lt;BodyStructure&gt; from its respective Specimen</t>
-  </si>
-  <si>
-    <t>Specimen.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Specimen.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Identifier</t>
-  </si>
-  <si>
-    <t>Id for specimen.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>SPM-2</t>
-  </si>
-  <si>
-    <t>Specimen.accessionIdentifier</t>
-  </si>
-  <si>
-    <t>Identifier assigned by the lab</t>
-  </si>
-  <si>
-    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
-  </si>
-  <si>
-    <t>SPM-30 (v2.7+)</t>
-  </si>
-  <si>
-    <t>Specimen.status</t>
-  </si>
-  <si>
-    <t>available | unavailable | unsatisfactory | entered-in-error</t>
-  </si>
-  <si>
-    <t>The availability of the specimen.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status/availability of a specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>SPM-20</t>
-  </si>
-  <si>
-    <t>Specimen.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of material that forms the specimen</t>
-  </si>
-  <si>
-    <t>The kind of material that forms the specimen.</t>
-  </si>
-  <si>
-    <t>The type can change the way that a specimen is handled and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>SPM-4 and possibly SPM-5</t>
-  </si>
-  <si>
-    <t>Specimen.type.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1862,41 +1862,41 @@
     <col min="1" max="1" width="47.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.36328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="153.578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.89453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="57.8984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="89.66015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="36.19140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="36.1953125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="99.94921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="54.5078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="54.51171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2109,10 +2109,10 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>76</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2134,28 +2134,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2205,13 +2205,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2242,25 +2242,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2311,22 +2311,22 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2348,28 +2348,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2419,22 +2419,22 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2456,7 +2456,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2468,16 +2468,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2503,46 +2503,46 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI6" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2553,18 +2553,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2576,16 +2576,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2635,22 +2635,22 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2661,11 +2661,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2684,16 +2684,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2743,7 +2743,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2758,7 +2758,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2769,11 +2769,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2792,16 +2792,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2839,19 +2839,19 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB9" t="s" s="2">
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2860,13 +2860,13 @@
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2877,10 +2877,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>76</v>
@@ -2893,7 +2893,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2902,13 +2902,13 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2959,7 +2959,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2968,10 +2968,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2985,11 +2985,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3002,25 +3002,25 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -3057,19 +3057,19 @@
         <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3078,13 +3078,13 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3103,28 +3103,28 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3175,7 +3175,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3184,24 +3184,24 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3212,25 +3212,25 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3281,33 +3281,33 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3315,31 +3315,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="H14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3365,57 +3365,57 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3423,31 +3423,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3473,57 +3473,57 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3534,7 +3534,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3546,7 +3546,7 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>184</v>
@@ -3609,7 +3609,7 @@
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
@@ -3618,7 +3618,7 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3652,16 +3652,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3699,16 +3699,16 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>189</v>
@@ -3720,13 +3720,13 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>78</v>
@@ -3757,7 +3757,7 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>191</v>
@@ -3816,7 +3816,7 @@
         <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>197</v>
@@ -3828,10 +3828,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>198</v>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
@@ -3867,7 +3867,7 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>191</v>
@@ -3938,10 +3938,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>198</v>
@@ -3966,7 +3966,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3978,7 +3978,7 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>184</v>
@@ -4041,7 +4041,7 @@
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -4050,7 +4050,7 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4084,16 +4084,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4131,16 +4131,16 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>189</v>
@@ -4152,13 +4152,13 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -4177,22 +4177,22 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>206</v>
@@ -4259,13 +4259,13 @@
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>212</v>
@@ -4290,19 +4290,19 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>215</v>
@@ -4367,13 +4367,13 @@
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>219</v>
@@ -4398,19 +4398,19 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>222</v>
@@ -4477,13 +4477,13 @@
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>227</v>
@@ -4508,19 +4508,19 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>230</v>
@@ -4587,13 +4587,13 @@
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>234</v>
@@ -4618,16 +4618,16 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>237</v>
@@ -4697,13 +4697,13 @@
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>243</v>
@@ -4728,19 +4728,19 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>246</v>
@@ -4807,13 +4807,13 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>251</v>
@@ -4835,19 +4835,19 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>254</v>
@@ -4917,10 +4917,10 @@
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>259</v>
@@ -4948,16 +4948,16 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>263</v>
@@ -5023,13 +5023,13 @@
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>266</v>
@@ -5057,7 +5057,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5134,7 +5134,7 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>259</v>
@@ -5165,7 +5165,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5242,7 +5242,7 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>259</v>
@@ -5267,13 +5267,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5345,13 +5345,13 @@
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>287</v>
@@ -5376,7 +5376,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5388,7 +5388,7 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>184</v>
@@ -5451,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5460,7 +5460,7 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5494,16 +5494,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5541,16 +5541,16 @@
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>189</v>
@@ -5562,13 +5562,13 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5585,17 +5585,17 @@
         <v>291</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5613,7 +5613,7 @@
         <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5672,13 +5672,13 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5706,13 +5706,13 @@
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>297</v>
@@ -5721,10 +5721,10 @@
         <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5782,13 +5782,13 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5810,16 +5810,16 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>301</v>
@@ -5887,10 +5887,10 @@
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>259</v>
@@ -5915,19 +5915,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>308</v>
@@ -5993,13 +5993,13 @@
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>311</v>
@@ -6024,16 +6024,16 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>315</v>
@@ -6101,10 +6101,10 @@
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>321</v>
@@ -6132,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6209,10 +6209,10 @@
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>328</v>
@@ -6240,7 +6240,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
@@ -6252,7 +6252,7 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>332</v>
@@ -6287,7 +6287,7 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>335</v>
@@ -6317,13 +6317,13 @@
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>337</v>
@@ -6345,14 +6345,14 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>340</v>
@@ -6395,7 +6395,7 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>343</v>
@@ -6425,10 +6425,10 @@
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>345</v>
@@ -6456,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6468,7 +6468,7 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>184</v>
@@ -6531,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6540,7 +6540,7 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6574,16 +6574,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6621,16 +6621,16 @@
         <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB44" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB44" t="s" s="2">
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>189</v>
@@ -6642,13 +6642,13 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6679,7 +6679,7 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>191</v>
@@ -6738,7 +6738,7 @@
         <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>197</v>
@@ -6750,10 +6750,10 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>198</v>
@@ -6780,16 +6780,16 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>191</v>
@@ -6829,7 +6829,7 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
@@ -6860,10 +6860,10 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>198</v>
@@ -6888,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>76</v>
@@ -6900,7 +6900,7 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>184</v>
@@ -6963,7 +6963,7 @@
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -6972,7 +6972,7 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7006,16 +7006,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7053,16 +7053,16 @@
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB48" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB48" t="s" s="2">
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>189</v>
@@ -7074,13 +7074,13 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7099,22 +7099,22 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>206</v>
@@ -7181,13 +7181,13 @@
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>212</v>
@@ -7212,19 +7212,19 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>215</v>
@@ -7289,13 +7289,13 @@
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>219</v>
@@ -7320,19 +7320,19 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>222</v>
@@ -7399,13 +7399,13 @@
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>227</v>
@@ -7430,19 +7430,19 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>230</v>
@@ -7509,13 +7509,13 @@
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>234</v>
@@ -7540,16 +7540,16 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>237</v>
@@ -7619,13 +7619,13 @@
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>243</v>
@@ -7652,16 +7652,16 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>191</v>
@@ -7701,7 +7701,7 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
@@ -7732,10 +7732,10 @@
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>198</v>
@@ -7760,7 +7760,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7772,7 +7772,7 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>184</v>
@@ -7835,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -7844,7 +7844,7 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7859,7 +7859,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7878,16 +7878,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7925,16 +7925,16 @@
         <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB56" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB56" t="s" s="2">
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>189</v>
@@ -7946,13 +7946,13 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7971,22 +7971,22 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>206</v>
@@ -8053,13 +8053,13 @@
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI57" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>212</v>
@@ -8084,19 +8084,19 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>215</v>
@@ -8161,13 +8161,13 @@
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>219</v>
@@ -8192,19 +8192,19 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>222</v>
@@ -8271,13 +8271,13 @@
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>227</v>
@@ -8302,19 +8302,19 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>230</v>
@@ -8381,13 +8381,13 @@
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>234</v>
@@ -8412,16 +8412,16 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>237</v>
@@ -8491,13 +8491,13 @@
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>243</v>
@@ -8522,19 +8522,19 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>246</v>
@@ -8601,13 +8601,13 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI62" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>251</v>
@@ -8632,16 +8632,16 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>364</v>
@@ -8700,7 +8700,7 @@
         <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>363</v>
@@ -8709,16 +8709,16 @@
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI63" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -8742,19 +8742,19 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>365</v>
@@ -8791,7 +8791,7 @@
         <v>76</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>369</v>
@@ -8821,16 +8821,16 @@
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -8855,7 +8855,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8916,7 +8916,7 @@
         <v>76</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>374</v>
@@ -8928,10 +8928,10 @@
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>378</v>
@@ -8956,7 +8956,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -8968,7 +8968,7 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>184</v>
@@ -9031,7 +9031,7 @@
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -9040,7 +9040,7 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -9055,11 +9055,11 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>78</v>
@@ -9074,16 +9074,16 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9121,16 +9121,16 @@
         <v>76</v>
       </c>
       <c r="AA67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB67" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB67" t="s" s="2">
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>189</v>
@@ -9142,13 +9142,13 @@
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9165,17 +9165,17 @@
         <v>381</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9193,7 +9193,7 @@
         <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9252,13 +9252,13 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9286,13 +9286,13 @@
         <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>297</v>
@@ -9301,10 +9301,10 @@
         <v>298</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9362,13 +9362,13 @@
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9390,7 +9390,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>76</v>
@@ -9402,7 +9402,7 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>387</v>
@@ -9467,13 +9467,13 @@
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>389</v>
@@ -9495,14 +9495,14 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>391</v>
@@ -9545,7 +9545,7 @@
         <v>76</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>393</v>
@@ -9575,16 +9575,16 @@
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ71" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -9606,7 +9606,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
@@ -9618,7 +9618,7 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>184</v>
@@ -9681,7 +9681,7 @@
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -9690,7 +9690,7 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9724,16 +9724,16 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9771,16 +9771,16 @@
         <v>76</v>
       </c>
       <c r="AA73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB73" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB73" t="s" s="2">
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>189</v>
@@ -9792,13 +9792,13 @@
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>78</v>
@@ -9829,7 +9829,7 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>191</v>
@@ -9888,7 +9888,7 @@
         <v>76</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>197</v>
@@ -9900,10 +9900,10 @@
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>198</v>
@@ -9927,19 +9927,19 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>191</v>
@@ -10012,10 +10012,10 @@
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI75" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>198</v>
@@ -10040,19 +10040,19 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>246</v>
@@ -10119,13 +10119,13 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>251</v>
@@ -10153,7 +10153,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10230,7 +10230,7 @@
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>259</v>
@@ -10258,10 +10258,10 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10322,7 +10322,7 @@
         <v>76</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>407</v>
@@ -10331,13 +10331,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI78" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>311</v>
@@ -10364,10 +10364,10 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10439,13 +10439,13 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI79" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>311</v>
@@ -10470,7 +10470,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>76</v>
@@ -10482,7 +10482,7 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>184</v>
@@ -10545,7 +10545,7 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10554,7 +10554,7 @@
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10588,16 +10588,16 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10635,16 +10635,16 @@
         <v>76</v>
       </c>
       <c r="AA81" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB81" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB81" t="s" s="2">
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>189</v>
@@ -10656,13 +10656,13 @@
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10684,16 +10684,16 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>263</v>
@@ -10761,13 +10761,13 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>420</v>
@@ -10792,16 +10792,16 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>263</v>
@@ -10871,13 +10871,13 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>428</v>
@@ -10907,7 +10907,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -10982,10 +10982,10 @@
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI84" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>378</v>
@@ -11010,7 +11010,7 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>76</v>
@@ -11022,7 +11022,7 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>184</v>
@@ -11085,7 +11085,7 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11094,7 +11094,7 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11128,16 +11128,16 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11175,16 +11175,16 @@
         <v>76</v>
       </c>
       <c r="AA86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB86" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB86" t="s" s="2">
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>189</v>
@@ -11196,13 +11196,13 @@
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
@@ -11219,17 +11219,17 @@
         <v>381</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11247,7 +11247,7 @@
         <v>384</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11306,13 +11306,13 @@
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
@@ -11340,13 +11340,13 @@
         <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>297</v>
@@ -11355,10 +11355,10 @@
         <v>298</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -11416,13 +11416,13 @@
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -11444,7 +11444,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>76</v>
@@ -11456,7 +11456,7 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>387</v>
@@ -11521,13 +11521,13 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>389</v>
@@ -11552,7 +11552,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -11564,7 +11564,7 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>391</v>
@@ -11599,7 +11599,7 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>393</v>
@@ -11629,16 +11629,16 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI90" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ90" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>76</v>
@@ -11660,7 +11660,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>76</v>
@@ -11672,7 +11672,7 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>184</v>
@@ -11735,7 +11735,7 @@
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -11744,7 +11744,7 @@
         <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>76</v>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11778,16 +11778,16 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11825,16 +11825,16 @@
         <v>76</v>
       </c>
       <c r="AA92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB92" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB92" t="s" s="2">
+      <c r="AC92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD92" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>189</v>
@@ -11846,13 +11846,13 @@
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
@@ -11883,7 +11883,7 @@
         <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>191</v>
@@ -11956,10 +11956,10 @@
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>198</v>
@@ -11984,19 +11984,19 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>246</v>
@@ -12063,13 +12063,13 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI94" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>251</v>
@@ -12174,7 +12174,7 @@
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>259</v>
@@ -12199,10 +12199,10 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>76</v>
@@ -12277,13 +12277,13 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>311</v>
@@ -12310,7 +12310,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>76</v>
@@ -12385,13 +12385,13 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI97" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>311</v>
@@ -12416,7 +12416,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>76</v>
@@ -12428,7 +12428,7 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>184</v>
@@ -12491,7 +12491,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>76</v>
@@ -12500,7 +12500,7 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>76</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12534,16 +12534,16 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12581,16 +12581,16 @@
         <v>76</v>
       </c>
       <c r="AA99" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB99" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB99" t="s" s="2">
+      <c r="AC99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD99" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE99" t="s" s="2">
         <v>189</v>
@@ -12602,13 +12602,13 @@
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>76</v>
@@ -12627,19 +12627,19 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>263</v>
@@ -12707,13 +12707,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>420</v>
@@ -12738,16 +12738,16 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>263</v>
@@ -12817,13 +12817,13 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>428</v>
@@ -12851,7 +12851,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -12926,10 +12926,10 @@
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI102" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>437</v>
@@ -12954,7 +12954,7 @@
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -12966,7 +12966,7 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>184</v>
@@ -13029,7 +13029,7 @@
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13038,7 +13038,7 @@
         <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>76</v>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13072,16 +13072,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13119,16 +13119,16 @@
         <v>76</v>
       </c>
       <c r="AA104" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB104" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB104" t="s" s="2">
+      <c r="AC104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD104" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AE104" t="s" s="2">
         <v>189</v>
@@ -13140,13 +13140,13 @@
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>76</v>
@@ -13174,13 +13174,13 @@
         <v>76</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>297</v>
@@ -13189,10 +13189,10 @@
         <v>298</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
@@ -13250,13 +13250,13 @@
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>76</v>
@@ -13287,10 +13287,10 @@
         <v>76</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>442</v>
@@ -13356,13 +13356,13 @@
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI106" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI106" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ106" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>76</v>
@@ -13384,7 +13384,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -13396,7 +13396,7 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>446</v>
@@ -13461,13 +13461,13 @@
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH107" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI107" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>448</v>
@@ -13489,14 +13489,14 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G108" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F108" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H108" t="s" s="2">
         <v>76</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>450</v>
@@ -13569,16 +13569,16 @@
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI108" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI108" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AJ108" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>76</v>
@@ -13600,10 +13600,10 @@
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G109" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>76</v>
@@ -13677,10 +13677,10 @@
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>328</v>
@@ -13708,10 +13708,10 @@
         <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G110" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>76</v>
@@ -13785,10 +13785,10 @@
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>328</v>
@@ -13816,10 +13816,10 @@
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G111" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>76</v>
@@ -13861,7 +13861,7 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X111" t="s" s="2">
         <v>468</v>
@@ -13891,13 +13891,13 @@
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH111" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI111" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>470</v>
@@ -13931,10 +13931,10 @@
         <v>76</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>473</v>
@@ -14004,10 +14004,10 @@
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>479</v>
@@ -14035,7 +14035,7 @@
         <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>76</v>
@@ -14112,10 +14112,10 @@
         <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>485</v>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Tumor Specimen</t>
+    <t>Profile Tumor Specimen</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Tumor specimen</t>
+    <t>Profile of a tumor specimen</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -151,6 +151,10 @@
     <t>A sample to be used for analysis.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+  </si>
+  <si>
     <t>Role[classCode=SPEC]</t>
   </si>
   <si>
@@ -368,7 +372,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -1001,7 +1005,7 @@
     <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
   </si>
   <si>
-    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](extension-bodysite.html).</t>
+    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -2044,10 +2048,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -2058,10 +2062,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2072,7 +2076,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2081,19 +2085,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2143,13 +2147,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2169,10 +2173,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2183,7 +2187,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2192,16 +2196,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2252,22 +2256,22 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -2278,10 +2282,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2292,28 +2296,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2363,22 +2367,22 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -2389,10 +2393,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2403,7 +2407,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2415,16 +2419,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2450,13 +2454,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2474,22 +2478,22 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>38</v>
@@ -2500,21 +2504,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2526,16 +2530,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2585,22 +2589,22 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -2611,14 +2615,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2637,16 +2641,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2696,7 +2700,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2711,7 +2715,7 @@
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>38</v>
@@ -2722,14 +2726,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2748,16 +2752,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2795,19 +2799,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2816,13 +2820,13 @@
         <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>38</v>
@@ -2833,13 +2837,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2852,7 +2856,7 @@
         <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>38</v>
@@ -2861,13 +2865,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2918,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2927,10 +2931,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2944,14 +2948,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2964,25 +2968,25 @@
         <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3019,19 +3023,19 @@
         <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3040,13 +3044,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>38</v>
@@ -3057,10 +3061,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3068,28 +3072,28 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3140,7 +3144,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3149,27 +3153,27 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3180,7 +3184,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3189,16 +3193,16 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3249,36 +3253,36 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3286,31 +3290,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3336,13 +3340,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3360,36 +3364,36 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3397,31 +3401,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3447,13 +3451,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3471,36 +3475,36 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3511,7 +3515,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3523,13 +3527,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3580,13 +3584,13 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
@@ -3595,7 +3599,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -3606,14 +3610,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3632,16 +3636,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3679,19 +3683,19 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3700,13 +3704,13 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
@@ -3717,10 +3721,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3728,7 +3732,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -3740,22 +3744,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3792,17 +3796,17 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3811,37 +3815,37 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3853,22 +3857,22 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3893,11 +3897,11 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3915,7 +3919,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3924,27 +3928,27 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3955,7 +3959,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3967,13 +3971,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4024,13 +4028,13 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -4039,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -4050,14 +4054,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4076,16 +4080,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4123,19 +4127,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4144,13 +4148,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -4161,10 +4165,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4172,10 +4176,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4184,22 +4188,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4209,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>38</v>
@@ -4248,36 +4252,36 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4288,7 +4292,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4297,19 +4301,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4359,36 +4363,36 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4399,7 +4403,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4408,22 +4412,22 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4472,36 +4476,36 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4512,7 +4516,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4521,22 +4525,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4585,36 +4589,36 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4625,7 +4629,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4634,22 +4638,22 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4698,36 +4702,36 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4738,7 +4742,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4747,22 +4751,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4811,36 +4815,36 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4848,34 +4852,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4924,25 +4928,25 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4950,10 +4954,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4964,7 +4968,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4973,16 +4977,16 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5033,36 +5037,36 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5076,7 +5080,7 @@
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
@@ -5085,16 +5089,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5144,7 +5148,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5153,13 +5157,13 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>38</v>
@@ -5170,10 +5174,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5187,7 +5191,7 @@
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>38</v>
@@ -5196,16 +5200,16 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5255,7 +5259,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5264,27 +5268,27 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5292,13 +5296,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
@@ -5307,13 +5311,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5364,36 +5368,36 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5404,7 +5408,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5416,13 +5420,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5473,13 +5477,13 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
@@ -5488,7 +5492,7 @@
         <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>38</v>
@@ -5499,14 +5503,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5525,16 +5529,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5572,19 +5576,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5593,13 +5597,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>38</v>
@@ -5610,26 +5614,26 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="C34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
@@ -5638,16 +5642,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5697,7 +5701,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5706,13 +5710,13 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>38</v>
@@ -5723,14 +5727,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5743,25 +5747,25 @@
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5810,7 +5814,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5819,13 +5823,13 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -5836,10 +5840,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5850,7 +5854,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5859,19 +5863,19 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5921,36 +5925,36 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5958,28 +5962,28 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6030,36 +6034,36 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6070,7 +6074,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6079,19 +6083,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6117,13 +6121,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6141,36 +6145,36 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6181,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6193,16 +6197,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6252,36 +6256,36 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6292,7 +6296,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6304,16 +6308,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6339,13 +6343,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6363,36 +6367,36 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6400,13 +6404,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
@@ -6415,16 +6419,16 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6450,13 +6454,13 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6474,36 +6478,36 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6514,7 +6518,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6526,13 +6530,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6583,13 +6587,13 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
@@ -6598,7 +6602,7 @@
         <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>38</v>
@@ -6609,14 +6613,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6635,16 +6639,16 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6682,19 +6686,19 @@
         <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6703,13 +6707,13 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>38</v>
@@ -6720,10 +6724,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6743,22 +6747,22 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6795,17 +6799,17 @@
         <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6814,30 +6818,30 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -6847,31 +6851,31 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6896,11 +6900,11 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
@@ -6918,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6927,27 +6931,27 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6958,7 +6962,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6970,13 +6974,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7027,13 +7031,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -7042,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
@@ -7053,14 +7057,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7079,16 +7083,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7126,19 +7130,19 @@
         <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7147,13 +7151,13 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -7164,10 +7168,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7175,10 +7179,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7187,22 +7191,22 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7212,7 +7216,7 @@
         <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>38</v>
@@ -7251,36 +7255,36 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7291,7 +7295,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7300,19 +7304,19 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7362,36 +7366,36 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7402,7 +7406,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7411,22 +7415,22 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7475,36 +7479,36 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7515,7 +7519,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7524,22 +7528,22 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7588,36 +7592,36 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7628,7 +7632,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7637,22 +7641,22 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7701,39 +7705,39 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>38</v>
@@ -7743,31 +7747,31 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7792,11 +7796,11 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -7814,7 +7818,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7823,27 +7827,27 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7854,7 +7858,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7866,13 +7870,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7923,13 +7927,13 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
@@ -7938,7 +7942,7 @@
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>38</v>
@@ -7949,14 +7953,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7975,16 +7979,16 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8022,19 +8026,19 @@
         <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8043,13 +8047,13 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>38</v>
@@ -8060,10 +8064,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8071,10 +8075,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8083,22 +8087,22 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8108,7 +8112,7 @@
         <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>38</v>
@@ -8147,36 +8151,36 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8187,7 +8191,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8196,19 +8200,19 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8258,36 +8262,36 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8298,7 +8302,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8307,22 +8311,22 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8371,36 +8375,36 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8411,7 +8415,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8420,22 +8424,22 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8484,36 +8488,36 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8524,7 +8528,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8533,22 +8537,22 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8597,36 +8601,36 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8637,7 +8641,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8646,22 +8650,22 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8710,36 +8714,36 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8750,31 +8754,31 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -8799,61 +8803,61 @@
         <v>38</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>38</v>
@@ -8863,7 +8867,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8872,22 +8876,22 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -8912,13 +8916,13 @@
         <v>38</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>38</v>
@@ -8936,36 +8940,36 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8979,7 +8983,7 @@
         <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -8988,13 +8992,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9033,17 +9037,17 @@
         <v>38</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9052,13 +9056,13 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>38</v>
@@ -9069,10 +9073,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9083,7 +9087,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9095,13 +9099,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9152,13 +9156,13 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
@@ -9167,7 +9171,7 @@
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>38</v>
@@ -9178,18 +9182,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -9204,16 +9208,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9251,19 +9255,19 @@
         <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9272,13 +9276,13 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>38</v>
@@ -9289,26 +9293,26 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="C67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>38</v>
@@ -9317,16 +9321,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9376,7 +9380,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9385,13 +9389,13 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>38</v>
@@ -9402,14 +9406,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9422,25 +9426,25 @@
         <v>38</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9489,7 +9493,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9498,13 +9502,13 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>38</v>
@@ -9515,10 +9519,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9529,7 +9533,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9541,16 +9545,16 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9600,22 +9604,22 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>38</v>
@@ -9626,10 +9630,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9637,13 +9641,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -9652,16 +9656,16 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9687,13 +9691,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -9711,36 +9715,36 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9751,7 +9755,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9763,13 +9767,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9820,13 +9824,13 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
@@ -9835,7 +9839,7 @@
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>38</v>
@@ -9846,14 +9850,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9872,16 +9876,16 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9919,19 +9923,19 @@
         <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -9940,13 +9944,13 @@
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>38</v>
@@ -9957,10 +9961,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9968,7 +9972,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9980,22 +9984,22 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10032,17 +10036,17 @@
         <v>38</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10051,64 +10055,64 @@
         <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="C74" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10118,7 +10122,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10157,7 +10161,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10166,27 +10170,27 @@
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10197,7 +10201,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10206,22 +10210,22 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10270,36 +10274,36 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10313,7 +10317,7 @@
         <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>38</v>
@@ -10322,16 +10326,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10381,7 +10385,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10390,27 +10394,27 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10421,10 +10425,10 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>38</v>
@@ -10433,13 +10437,13 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10478,32 +10482,32 @@
         <v>38</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>38</v>
@@ -10514,13 +10518,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>38</v>
@@ -10530,10 +10534,10 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -10542,13 +10546,13 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10599,22 +10603,22 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>38</v>
@@ -10625,10 +10629,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10639,7 +10643,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -10651,13 +10655,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10708,13 +10712,13 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
@@ -10723,7 +10727,7 @@
         <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>38</v>
@@ -10734,14 +10738,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10760,16 +10764,16 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10807,19 +10811,19 @@
         <v>38</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -10828,13 +10832,13 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>38</v>
@@ -10845,10 +10849,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10859,28 +10863,28 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10930,36 +10934,36 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10970,35 +10974,35 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>38</v>
@@ -11043,39 +11047,39 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>38</v>
@@ -11088,7 +11092,7 @@
         <v>40</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
@@ -11097,13 +11101,13 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11154,7 +11158,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11163,13 +11167,13 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>38</v>
@@ -11180,10 +11184,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11194,7 +11198,7 @@
         <v>39</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>38</v>
@@ -11206,13 +11210,13 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11263,13 +11267,13 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>38</v>
@@ -11278,7 +11282,7 @@
         <v>38</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>38</v>
@@ -11289,14 +11293,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -11315,16 +11319,16 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11362,19 +11366,19 @@
         <v>38</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -11383,13 +11387,13 @@
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>38</v>
@@ -11400,26 +11404,26 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>38</v>
@@ -11428,16 +11432,16 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11487,7 +11491,7 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -11496,13 +11500,13 @@
         <v>40</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>38</v>
@@ -11513,14 +11517,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11533,25 +11537,25 @@
         <v>38</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
@@ -11600,7 +11604,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -11609,13 +11613,13 @@
         <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>38</v>
@@ -11626,10 +11630,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11640,7 +11644,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>38</v>
@@ -11652,16 +11656,16 @@
         <v>38</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11711,22 +11715,22 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>38</v>
@@ -11737,10 +11741,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11751,7 +11755,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>38</v>
@@ -11763,16 +11767,16 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11798,13 +11802,13 @@
         <v>38</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>38</v>
@@ -11822,36 +11826,36 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11862,7 +11866,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>38</v>
@@ -11874,13 +11878,13 @@
         <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11931,13 +11935,13 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>38</v>
@@ -11946,7 +11950,7 @@
         <v>38</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>38</v>
@@ -11957,14 +11961,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11983,16 +11987,16 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12030,19 +12034,19 @@
         <v>38</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12051,13 +12055,13 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>38</v>
@@ -12068,10 +12072,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12091,22 +12095,22 @@
         <v>38</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>38</v>
@@ -12116,7 +12120,7 @@
         <v>38</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>38</v>
@@ -12155,7 +12159,7 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12164,27 +12168,27 @@
         <v>40</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12195,7 +12199,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>38</v>
@@ -12204,22 +12208,22 @@
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>38</v>
@@ -12268,36 +12272,36 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12320,16 +12324,16 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12379,7 +12383,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -12388,27 +12392,27 @@
         <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12416,10 +12420,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>38</v>
@@ -12431,13 +12435,13 @@
         <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12488,22 +12492,22 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>38</v>
@@ -12514,13 +12518,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>38</v>
@@ -12530,7 +12534,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>38</v>
@@ -12542,13 +12546,13 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12599,22 +12603,22 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>38</v>
@@ -12625,10 +12629,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12639,7 +12643,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>38</v>
@@ -12651,13 +12655,13 @@
         <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12708,13 +12712,13 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>38</v>
@@ -12723,7 +12727,7 @@
         <v>38</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>38</v>
@@ -12734,14 +12738,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -12760,16 +12764,16 @@
         <v>38</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12807,19 +12811,19 @@
         <v>38</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -12828,13 +12832,13 @@
         <v>40</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>38</v>
@@ -12845,10 +12849,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12856,10 +12860,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>38</v>
@@ -12868,19 +12872,19 @@
         <v>38</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12930,36 +12934,36 @@
         <v>38</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12970,7 +12974,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>38</v>
@@ -12979,26 +12983,26 @@
         <v>38</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q100" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>38</v>
@@ -13043,36 +13047,36 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13086,7 +13090,7 @@
         <v>40</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>38</v>
@@ -13095,13 +13099,13 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13152,7 +13156,7 @@
         <v>38</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -13161,13 +13165,13 @@
         <v>40</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>38</v>
@@ -13178,10 +13182,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13192,7 +13196,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>38</v>
@@ -13204,13 +13208,13 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13261,13 +13265,13 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>38</v>
@@ -13276,7 +13280,7 @@
         <v>38</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>38</v>
@@ -13287,14 +13291,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13313,16 +13317,16 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13360,19 +13364,19 @@
         <v>38</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -13381,13 +13385,13 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>38</v>
@@ -13398,14 +13402,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13418,25 +13422,25 @@
         <v>38</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>38</v>
@@ -13485,7 +13489,7 @@
         <v>38</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -13494,13 +13498,13 @@
         <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>38</v>
@@ -13511,10 +13515,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13534,16 +13538,16 @@
         <v>38</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13594,7 +13598,7 @@
         <v>38</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -13603,27 +13607,27 @@
         <v>40</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13634,7 +13638,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>38</v>
@@ -13646,16 +13650,16 @@
         <v>38</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13705,22 +13709,22 @@
         <v>38</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>38</v>
@@ -13731,10 +13735,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13742,13 +13746,13 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>38</v>
@@ -13757,16 +13761,16 @@
         <v>38</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -13792,13 +13796,13 @@
         <v>38</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>38</v>
@@ -13816,36 +13820,36 @@
         <v>38</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13856,10 +13860,10 @@
         <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>38</v>
@@ -13868,16 +13872,16 @@
         <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13927,36 +13931,36 @@
         <v>38</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13967,10 +13971,10 @@
         <v>39</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>38</v>
@@ -13979,16 +13983,16 @@
         <v>38</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14038,36 +14042,36 @@
         <v>38</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14078,10 +14082,10 @@
         <v>39</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>38</v>
@@ -14090,13 +14094,13 @@
         <v>38</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14123,13 +14127,13 @@
         <v>38</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>38</v>
@@ -14147,36 +14151,36 @@
         <v>38</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14196,22 +14200,22 @@
         <v>38</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>38</v>
@@ -14236,13 +14240,13 @@
         <v>38</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>38</v>
@@ -14260,7 +14264,7 @@
         <v>38</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -14269,27 +14273,27 @@
         <v>40</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14303,7 +14307,7 @@
         <v>40</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>38</v>
@@ -14312,16 +14316,16 @@
         <v>38</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14371,7 +14375,7 @@
         <v>38</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
@@ -14380,19 +14384,19 @@
         <v>40</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-specimen.xlsx
+++ b/StructureDefinition-tumor-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
